--- a/outputs-HGR-r202/c__Bacilli.xlsx
+++ b/outputs-HGR-r202/c__Bacilli.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W556"/>
+  <dimension ref="A1:X556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,6 +630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -700,6 +710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -775,6 +790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -850,6 +870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -925,6 +950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1000,6 +1030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1075,6 +1110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1150,6 +1190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1225,6 +1270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1300,6 +1350,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1375,6 +1430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1450,6 +1510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1525,6 +1590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1600,6 +1670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1675,6 +1750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1750,6 +1830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1825,6 +1910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1900,6 +1990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1975,6 +2070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2050,6 +2150,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2125,6 +2230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2200,6 +2310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2275,6 +2390,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2350,6 +2470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2425,6 +2550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2500,6 +2630,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2575,6 +2710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2650,6 +2790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2725,6 +2870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2800,6 +2950,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2875,6 +3030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2950,6 +3110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3025,6 +3190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3100,6 +3270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3175,6 +3350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3250,6 +3430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3325,6 +3510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3400,6 +3590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3475,6 +3670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3550,6 +3750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3625,6 +3830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3700,6 +3910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3775,6 +3990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3850,6 +4070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3925,6 +4150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4000,6 +4230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4075,6 +4310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4150,6 +4390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4225,6 +4470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4300,6 +4550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4375,6 +4630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4450,6 +4710,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4525,6 +4790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4600,6 +4870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4675,6 +4950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4750,6 +5030,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -4825,6 +5110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4900,6 +5190,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4975,6 +5270,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -5050,6 +5350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -5125,6 +5430,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5200,6 +5510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5275,6 +5590,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5350,6 +5670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -5425,6 +5750,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5500,6 +5830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5575,6 +5910,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -5650,6 +5990,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -5725,6 +6070,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5800,6 +6150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -5875,6 +6230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -5950,6 +6310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -6025,6 +6390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -6100,6 +6470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -6175,6 +6550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6250,6 +6630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6325,6 +6710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -6400,6 +6790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -6475,6 +6870,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -6550,6 +6950,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -6625,6 +7030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -6700,6 +7110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -6775,6 +7190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -6850,6 +7270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -6925,6 +7350,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -7000,6 +7430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -7075,6 +7510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -7150,6 +7590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -7225,6 +7670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -7300,6 +7750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7375,6 +7830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -7450,6 +7910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -7525,6 +7990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -7600,6 +8070,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -7675,6 +8150,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -7750,6 +8230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -7825,6 +8310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -7900,6 +8390,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -7975,6 +8470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -8050,6 +8550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -8125,6 +8630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -8200,6 +8710,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -8275,6 +8790,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -8350,6 +8870,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -8425,6 +8950,11 @@
           <t>o__Acholeplasmatales</t>
         </is>
       </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -8500,6 +9030,11 @@
           <t>o__Acholeplasmatales</t>
         </is>
       </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -8575,6 +9110,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -8650,6 +9190,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -8725,6 +9270,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -8800,6 +9350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -8875,6 +9430,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -8950,6 +9510,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -9025,6 +9590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -9100,6 +9670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -9175,6 +9750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -9250,6 +9830,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -9325,6 +9910,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -9400,6 +9990,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -9475,6 +10070,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -9550,6 +10150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -9625,6 +10230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -9700,6 +10310,11 @@
           <t>o__Haloplasmatales_A</t>
         </is>
       </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>o__Haloplasmatales_A</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -9775,6 +10390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -9850,6 +10470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -9925,6 +10550,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -10000,6 +10630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -10075,6 +10710,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -10150,6 +10790,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -10225,6 +10870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -10300,6 +10950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -10375,6 +11030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -10450,6 +11110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -10525,6 +11190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -10600,6 +11270,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -10675,6 +11350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -10750,6 +11430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -10825,6 +11510,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -10900,6 +11590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -10975,6 +11670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -11050,6 +11750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -11125,6 +11830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -11200,6 +11910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -11275,6 +11990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -11350,6 +12070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -11425,6 +12150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -11500,6 +12230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -11575,6 +12310,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -11650,6 +12390,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -11725,6 +12470,11 @@
           <t>o__Acholeplasmatales</t>
         </is>
       </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -11800,6 +12550,11 @@
           <t>o__Paenibacillales</t>
         </is>
       </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>o__Paenibacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -11875,6 +12630,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -11950,6 +12710,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>o__RFN20(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -12025,6 +12790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -12100,6 +12870,11 @@
           <t>o__Acholeplasmatales</t>
         </is>
       </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -12175,6 +12950,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -12250,6 +13030,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -12325,6 +13110,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -12400,6 +13190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -12475,6 +13270,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -12550,6 +13350,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -12625,6 +13430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -12700,6 +13510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -12775,6 +13590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -12850,6 +13670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -12925,6 +13750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -13000,6 +13830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -13075,6 +13910,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -13150,6 +13990,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -13225,6 +14070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -13300,6 +14150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -13375,6 +14230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -13450,6 +14310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -13525,6 +14390,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -13600,6 +14470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -13675,6 +14550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -13750,6 +14630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -13825,6 +14710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -13900,6 +14790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -13975,6 +14870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -14050,6 +14950,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -14125,6 +15030,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -14200,6 +15110,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -14275,6 +15190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -14350,6 +15270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -14425,6 +15350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -14500,6 +15430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -14575,6 +15510,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -14650,6 +15590,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -14725,6 +15670,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -14800,6 +15750,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -14875,6 +15830,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -14950,6 +15910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -15025,6 +15990,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -15100,6 +16070,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -15175,6 +16150,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -15250,6 +16230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -15325,6 +16310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -15400,6 +16390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -15475,6 +16470,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -15550,6 +16550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -15625,6 +16630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -15700,6 +16710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -15775,6 +16790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -15850,6 +16870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -15925,6 +16950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -16000,6 +17030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -16075,6 +17110,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -16150,6 +17190,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -16225,6 +17270,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -16300,6 +17350,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -16375,6 +17430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -16450,6 +17510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -16525,6 +17590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -16600,6 +17670,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -16675,6 +17750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -16750,6 +17830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -16825,6 +17910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -16900,6 +17990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -16975,6 +18070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -17050,6 +18150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -17125,6 +18230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -17200,6 +18310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -17275,6 +18390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -17350,6 +18470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -17425,6 +18550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -17500,6 +18630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -17575,6 +18710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -17650,6 +18790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -17725,6 +18870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -17800,6 +18950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -17875,6 +19030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -17950,6 +19110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -18025,6 +19190,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -18100,6 +19270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -18175,6 +19350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -18250,6 +19430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -18325,6 +19510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -18400,6 +19590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -18475,6 +19670,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -18550,6 +19750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -18625,6 +19830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -18700,6 +19910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -18775,6 +19990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -18850,6 +20070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -18925,6 +20150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -19000,6 +20230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -19075,6 +20310,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -19150,6 +20390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -19225,6 +20470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -19300,6 +20550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -19375,6 +20630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -19450,6 +20710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -19525,6 +20790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -19600,6 +20870,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -19675,6 +20950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -19750,6 +21030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -19825,6 +21110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -19900,6 +21190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -19975,6 +21270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -20050,6 +21350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -20125,6 +21430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -20200,6 +21510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -20275,6 +21590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -20350,6 +21670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -20425,6 +21750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -20500,6 +21830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -20575,6 +21910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -20650,6 +21990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -20725,6 +22070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -20800,6 +22150,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -20875,6 +22230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -20950,6 +22310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -21025,6 +22390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -21100,6 +22470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -21175,6 +22550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -21250,6 +22630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -21325,6 +22710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -21400,6 +22790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -21475,6 +22870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -21550,6 +22950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -21625,6 +23030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -21700,6 +23110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -21775,6 +23190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -21850,6 +23270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -21925,6 +23350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -22000,6 +23430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -22075,6 +23510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -22150,6 +23590,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -22225,6 +23670,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -22300,6 +23750,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -22375,6 +23830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -22450,6 +23910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -22525,6 +23990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -22600,6 +24070,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -22675,6 +24150,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -22750,6 +24230,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -22825,6 +24310,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -22900,6 +24390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -22975,6 +24470,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -23050,6 +24550,11 @@
           <t>o__Acholeplasmatales</t>
         </is>
       </c>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -23125,6 +24630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -23200,6 +24710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X303" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -23275,6 +24790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -23350,6 +24870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -23425,6 +24950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -23500,6 +25030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -23575,6 +25110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -23650,6 +25190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -23725,6 +25270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -23800,6 +25350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -23875,6 +25430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -23950,6 +25510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -24025,6 +25590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -24100,6 +25670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -24175,6 +25750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -24250,6 +25830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -24325,6 +25910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X318" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -24400,6 +25990,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X319" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -24475,6 +26070,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -24550,6 +26150,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>o__RFN20(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -24625,6 +26230,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -24700,6 +26310,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -24775,6 +26390,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -24850,6 +26470,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X325" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -24925,6 +26550,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X326" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -25000,6 +26630,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -25075,6 +26710,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -25150,6 +26790,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -25225,6 +26870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -25300,6 +26950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -25375,6 +27030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -25450,6 +27110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -25525,6 +27190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X334" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -25600,6 +27270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -25675,6 +27350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X336" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -25750,6 +27430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X337" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -25825,6 +27510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X338" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -25900,6 +27590,11 @@
           <t>o__Acholeplasmatales</t>
         </is>
       </c>
+      <c r="X339" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -25975,6 +27670,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="X340" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -26050,6 +27750,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X341" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -26125,6 +27830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -26200,6 +27910,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -26275,6 +27990,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -26350,6 +28070,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -26425,6 +28150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -26500,6 +28230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -26575,6 +28310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X348" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -26650,6 +28390,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -26725,6 +28470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X350" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -26800,6 +28550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X351" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -26875,6 +28630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X352" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -26950,6 +28710,11 @@
           <t>o__Acholeplasmatales</t>
         </is>
       </c>
+      <c r="X353" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -27025,6 +28790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X354" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -27100,6 +28870,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X355" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -27175,6 +28950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X356" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -27250,6 +29030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X357" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -27325,6 +29110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X358" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -27400,6 +29190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X359" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -27475,6 +29270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X360" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -27550,6 +29350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X361" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -27625,6 +29430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X362" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -27700,6 +29510,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X363" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -27775,6 +29590,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X364" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -27850,6 +29670,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X365" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -27925,6 +29750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X366" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -28000,6 +29830,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X367" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -28075,6 +29910,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X368" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -28150,6 +29990,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X369" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -28225,6 +30070,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X370" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -28300,6 +30150,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="X371" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -28375,6 +30230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X372" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -28450,6 +30310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X373" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -28525,6 +30390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X374" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -28600,6 +30470,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X375" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -28675,6 +30550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X376" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -28750,6 +30630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X377" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -28825,6 +30710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X378" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -28900,6 +30790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X379" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -28975,6 +30870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X380" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -29050,6 +30950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X381" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -29125,6 +31030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X382" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -29200,6 +31110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X383" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -29275,6 +31190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X384" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -29350,6 +31270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X385" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -29425,6 +31350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X386" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -29500,6 +31430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X387" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -29575,6 +31510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X388" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -29650,6 +31590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X389" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -29725,6 +31670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X390" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -29800,6 +31750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X391" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -29875,6 +31830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X392" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -29950,6 +31910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X393" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -30025,6 +31990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X394" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -30100,6 +32070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X395" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -30175,6 +32150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X396" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -30250,6 +32230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X397" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -30325,6 +32310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X398" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -30400,6 +32390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X399" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -30475,6 +32470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X400" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -30550,6 +32550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X401" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -30625,6 +32630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X402" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -30700,6 +32710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X403" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -30775,6 +32790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X404" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -30850,6 +32870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X405" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -30925,6 +32950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X406" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -31000,6 +33030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X407" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -31075,6 +33110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X408" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -31150,6 +33190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X409" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -31225,6 +33270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X410" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -31300,6 +33350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X411" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -31375,6 +33430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X412" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -31450,6 +33510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X413" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -31525,6 +33590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X414" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -31600,6 +33670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X415" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -31675,6 +33750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X416" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -31750,6 +33830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X417" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -31825,6 +33910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X418" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -31900,6 +33990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X419" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -31975,6 +34070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X420" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -32050,6 +34150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X421" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -32125,6 +34230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X422" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -32200,6 +34310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X423" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -32275,6 +34390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X424" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
@@ -32350,6 +34470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X425" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -32425,6 +34550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X426" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -32500,6 +34630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X427" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -32575,6 +34710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X428" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
@@ -32650,6 +34790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X429" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -32725,6 +34870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X430" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -32800,6 +34950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X431" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -32875,6 +35030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X432" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
@@ -32950,6 +35110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X433" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
@@ -33025,6 +35190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X434" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
@@ -33100,6 +35270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X435" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
@@ -33175,6 +35350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X436" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
@@ -33250,6 +35430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X437" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
@@ -33325,6 +35510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X438" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
@@ -33400,6 +35590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X439" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
@@ -33475,6 +35670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X440" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
@@ -33550,6 +35750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X441" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
@@ -33625,6 +35830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X442" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
@@ -33700,6 +35910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X443" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
@@ -33775,6 +35990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X444" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
@@ -33850,6 +36070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X445" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
@@ -33925,6 +36150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X446" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
@@ -34000,6 +36230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X447" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
@@ -34075,6 +36310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X448" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
@@ -34150,6 +36390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X449" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
@@ -34225,6 +36470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X450" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
@@ -34300,6 +36550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X451" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
@@ -34375,6 +36630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X452" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
@@ -34450,6 +36710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X453" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
@@ -34525,6 +36790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X454" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
@@ -34600,6 +36870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X455" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
@@ -34675,6 +36950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X456" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
@@ -34750,6 +37030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X457" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
@@ -34825,6 +37110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X458" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
@@ -34900,6 +37190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X459" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
@@ -34975,6 +37270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X460" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
@@ -35050,6 +37350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X461" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
@@ -35125,6 +37430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X462" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
@@ -35200,6 +37510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X463" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
@@ -35275,6 +37590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X464" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
@@ -35350,6 +37670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X465" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
@@ -35425,6 +37750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X466" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
@@ -35500,6 +37830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X467" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
@@ -35575,6 +37910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X468" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
@@ -35650,6 +37990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X469" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
@@ -35725,6 +38070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X470" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
@@ -35800,6 +38150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X471" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
@@ -35875,6 +38230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X472" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
@@ -35950,6 +38310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X473" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
@@ -36025,6 +38390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X474" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
@@ -36100,6 +38470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X475" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
@@ -36175,6 +38550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X476" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
@@ -36250,6 +38630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X477" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
@@ -36325,6 +38710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X478" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
@@ -36400,6 +38790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X479" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
@@ -36475,6 +38870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X480" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
@@ -36550,6 +38950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X481" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
@@ -36625,6 +39030,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X482" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
@@ -36700,6 +39110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X483" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
@@ -36775,6 +39190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X484" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
@@ -36850,6 +39270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X485" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
@@ -36925,6 +39350,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X486" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
@@ -37000,6 +39430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X487" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
@@ -37075,6 +39510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X488" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
@@ -37150,6 +39590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X489" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
@@ -37225,6 +39670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X490" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
@@ -37300,6 +39750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X491" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
@@ -37375,6 +39830,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X492" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
@@ -37450,6 +39910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X493" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
@@ -37525,6 +39990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X494" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
@@ -37600,6 +40070,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X495" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
@@ -37675,6 +40150,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X496" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
@@ -37750,6 +40230,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X497" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -37825,6 +40310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X498" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -37900,6 +40390,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X499" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -37975,6 +40470,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X500" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -38050,6 +40550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X501" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -38125,6 +40630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X502" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -38200,6 +40710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X503" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -38275,6 +40790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X504" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -38350,6 +40870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X505" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -38425,6 +40950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X506" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -38500,6 +41030,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X507" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -38575,6 +41110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X508" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -38650,6 +41190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X509" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -38725,6 +41270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X510" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -38800,6 +41350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X511" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -38875,6 +41430,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X512" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -38950,6 +41510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X513" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -39025,6 +41590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X514" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -39100,6 +41670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X515" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -39175,6 +41750,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X516" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -39250,6 +41830,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X517" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -39325,6 +41910,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X518" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -39400,6 +41990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X519" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
@@ -39475,6 +42070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X520" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
@@ -39550,6 +42150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X521" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
@@ -39625,6 +42230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X522" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
@@ -39700,6 +42310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X523" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
@@ -39775,6 +42390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X524" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
@@ -39850,6 +42470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X525" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
@@ -39925,6 +42550,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X526" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
@@ -40000,6 +42630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X527" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -40075,6 +42710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X528" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -40150,6 +42790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X529" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -40225,6 +42870,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X530" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -40300,6 +42950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X531" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
@@ -40375,6 +43030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X532" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -40450,6 +43110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X533" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -40525,6 +43190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X534" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -40600,6 +43270,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X535" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -40675,6 +43350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X536" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -40750,6 +43430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X537" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
@@ -40825,6 +43510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X538" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
@@ -40900,6 +43590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X539" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -40975,6 +43670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X540" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -41050,6 +43750,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X541" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
@@ -41125,6 +43830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X542" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -41200,6 +43910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X543" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -41275,6 +43990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X544" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -41350,6 +44070,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X545" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
@@ -41425,6 +44150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X546" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
@@ -41500,6 +44230,11 @@
           <t>o__Staphylococcales</t>
         </is>
       </c>
+      <c r="X547" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -41575,6 +44310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X548" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
@@ -41650,6 +44390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X549" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
@@ -41725,6 +44470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X550" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
@@ -41800,6 +44550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X551" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
@@ -41875,6 +44630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X552" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
@@ -41950,6 +44710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X553" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
@@ -42025,6 +44790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X554" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
@@ -42100,6 +44870,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X555" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
@@ -42171,6 +44946,11 @@
         <v>0.9851388144400003</v>
       </c>
       <c r="W556" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+      <c r="X556" t="inlineStr">
         <is>
           <t>o__Lactobacillales</t>
         </is>

--- a/outputs-HGR-r202/c__Bacilli.xlsx
+++ b/outputs-HGR-r202/c__Bacilli.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W349"/>
+  <dimension ref="A1:X349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,6 +630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -700,6 +710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -775,6 +790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -850,6 +870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -925,6 +950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1000,6 +1030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1075,6 +1110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1150,6 +1190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1225,6 +1270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1300,6 +1350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1375,6 +1430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1450,6 +1510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1525,6 +1590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1600,6 +1670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1675,6 +1750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1750,6 +1830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1825,6 +1910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1900,6 +1990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1975,6 +2070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2050,6 +2150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2125,6 +2230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2200,6 +2310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2275,6 +2390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2350,6 +2470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2425,6 +2550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2500,6 +2630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2575,6 +2710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2650,6 +2790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2725,6 +2870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2800,6 +2950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2875,6 +3030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2950,6 +3110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3025,6 +3190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3100,6 +3270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3175,6 +3350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3250,6 +3430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3325,6 +3510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3400,6 +3590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3475,6 +3670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3550,6 +3750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3625,6 +3830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3700,6 +3910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3775,6 +3990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3850,6 +4070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3925,6 +4150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4000,6 +4230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4075,6 +4310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4150,6 +4390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4225,6 +4470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4300,6 +4550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4375,6 +4630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4450,6 +4710,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4525,6 +4790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4600,6 +4870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4675,6 +4950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4750,6 +5030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -4825,6 +5110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4900,6 +5190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4975,6 +5270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -5050,6 +5350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -5125,6 +5430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5200,6 +5510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5275,6 +5590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5350,6 +5670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -5425,6 +5750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5500,6 +5830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5575,6 +5910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -5650,6 +5990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -5725,6 +6070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5800,6 +6150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -5875,6 +6230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -5950,6 +6310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -6025,6 +6390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -6100,6 +6470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -6175,6 +6550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6250,6 +6630,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6325,6 +6710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -6400,6 +6790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -6475,6 +6870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -6550,6 +6950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -6625,6 +7030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -6700,6 +7110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -6775,6 +7190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -6850,6 +7270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -6925,6 +7350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -7000,6 +7430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -7075,6 +7510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -7150,6 +7590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -7225,6 +7670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -7300,6 +7750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7375,6 +7830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -7450,6 +7910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -7525,6 +7990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -7600,6 +8070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -7675,6 +8150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -7750,6 +8230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -7825,6 +8310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -7900,6 +8390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -7975,6 +8470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -8050,6 +8550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -8125,6 +8630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -8200,6 +8710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -8275,6 +8790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -8350,6 +8870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -8425,6 +8950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -8500,6 +9030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -8575,6 +9110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -8650,6 +9190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -8725,6 +9270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -8800,6 +9350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -8875,6 +9430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -8950,6 +9510,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -9025,6 +9590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -9100,6 +9670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -9175,6 +9750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -9250,6 +9830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -9325,6 +9910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -9400,6 +9990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -9475,6 +10070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -9550,6 +10150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -9625,6 +10230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -9700,6 +10310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -9775,6 +10390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -9850,6 +10470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -9925,6 +10550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -10000,6 +10630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -10075,6 +10710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -10150,6 +10790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -10225,6 +10870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -10300,6 +10950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -10375,6 +11030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -10450,6 +11110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -10525,6 +11190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -10600,6 +11270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -10675,6 +11350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -10750,6 +11430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -10825,6 +11510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -10900,6 +11590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -10975,6 +11670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -11050,6 +11750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -11125,6 +11830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -11200,6 +11910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -11275,6 +11990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -11350,6 +12070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -11425,6 +12150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -11500,6 +12230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -11575,6 +12310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -11650,6 +12390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -11725,6 +12470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -11800,6 +12550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -11875,6 +12630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -11950,6 +12710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -12025,6 +12790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -12100,6 +12870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -12175,6 +12950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -12250,6 +13030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -12325,6 +13110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -12400,6 +13190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -12475,6 +13270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -12550,6 +13350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -12625,6 +13430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -12700,6 +13510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -12775,6 +13590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -12850,6 +13670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -12925,6 +13750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -13000,6 +13830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -13075,6 +13910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -13150,6 +13990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -13225,6 +14070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -13300,6 +14150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -13375,6 +14230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -13450,6 +14310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -13525,6 +14390,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -13600,6 +14470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -13675,6 +14550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -13750,6 +14630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -13825,6 +14710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -13900,6 +14790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -13975,6 +14870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -14050,6 +14950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -14125,6 +15030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -14200,6 +15110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -14275,6 +15190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -14350,6 +15270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -14425,6 +15350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -14500,6 +15430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -14575,6 +15510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -14650,6 +15590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -14725,6 +15670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -14800,6 +15750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -14875,6 +15830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -14950,6 +15910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -15025,6 +15990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -15100,6 +16070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -15175,6 +16150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -15250,6 +16230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -15325,6 +16310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -15400,6 +16390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -15475,6 +16470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -15550,6 +16550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -15625,6 +16630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -15700,6 +16710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -15775,6 +16790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -15850,6 +16870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -15925,6 +16950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -16000,6 +17030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -16075,6 +17110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -16150,6 +17190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -16225,6 +17270,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -16300,6 +17350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -16375,6 +17430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -16450,6 +17510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -16525,6 +17590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -16600,6 +17670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -16675,6 +17750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -16750,6 +17830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -16825,6 +17910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -16900,6 +17990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -16975,6 +18070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -17050,6 +18150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -17125,6 +18230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -17200,6 +18310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -17275,6 +18390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -17350,6 +18470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -17425,6 +18550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -17500,6 +18630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -17575,6 +18710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -17650,6 +18790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -17725,6 +18870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -17800,6 +18950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -17875,6 +19030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -17950,6 +19110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -18025,6 +19190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -18100,6 +19270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -18175,6 +19350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -18250,6 +19430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -18325,6 +19510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -18400,6 +19590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -18475,6 +19670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -18550,6 +19750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -18625,6 +19830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -18700,6 +19910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -18775,6 +19990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -18850,6 +20070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -18925,6 +20150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -19000,6 +20230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -19075,6 +20310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -19150,6 +20390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -19225,6 +20470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -19300,6 +20550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -19375,6 +20630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -19450,6 +20710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -19525,6 +20790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -19600,6 +20870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -19675,6 +20950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -19750,6 +21030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -19825,6 +21110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -19900,6 +21190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -19975,6 +21270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -20050,6 +21350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -20125,6 +21430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -20200,6 +21510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -20275,6 +21590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -20350,6 +21670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -20425,6 +21750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -20500,6 +21830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -20575,6 +21910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -20650,6 +21990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -20725,6 +22070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -20800,6 +22150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -20875,6 +22230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -20950,6 +22310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -21025,6 +22390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -21100,6 +22470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -21175,6 +22550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -21250,6 +22630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -21325,6 +22710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -21400,6 +22790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -21475,6 +22870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -21550,6 +22950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -21625,6 +23030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -21700,6 +23110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -21775,6 +23190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -21850,6 +23270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -21925,6 +23350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -22000,6 +23430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -22075,6 +23510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -22150,6 +23590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -22225,6 +23670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -22300,6 +23750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -22375,6 +23830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -22450,6 +23910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -22525,6 +23990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -22600,6 +24070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -22675,6 +24150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -22750,6 +24230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -22825,6 +24310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -22900,6 +24390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -22975,6 +24470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -23050,6 +24550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -23125,6 +24630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -23200,6 +24710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X303" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -23275,6 +24790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -23350,6 +24870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -23425,6 +24950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -23500,6 +25030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -23575,6 +25110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -23650,6 +25190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -23725,6 +25270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -23800,6 +25350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -23875,6 +25430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -23950,6 +25510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -24025,6 +25590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -24100,6 +25670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -24175,6 +25750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -24250,6 +25830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -24325,6 +25910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X318" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -24400,6 +25990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X319" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -24475,6 +26070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -24550,6 +26150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -24625,6 +26230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -24700,6 +26310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -24775,6 +26390,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -24850,6 +26470,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X325" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -24925,6 +26550,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X326" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -25000,6 +26630,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -25075,6 +26710,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -25150,6 +26790,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -25225,6 +26870,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -25300,6 +26950,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -25375,6 +27030,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -25450,6 +27110,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -25525,6 +27190,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X334" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -25600,6 +27270,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -25675,6 +27350,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X336" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -25750,6 +27430,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X337" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -25825,6 +27510,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X338" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -25900,6 +27590,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X339" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -25975,6 +27670,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X340" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -26050,6 +27750,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X341" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -26125,6 +27830,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -26200,6 +27910,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -26275,6 +27990,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -26350,6 +28070,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -26425,6 +28150,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -26500,6 +28230,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -26575,6 +28310,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="X348" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -26646,6 +28386,11 @@
         <v>0.9851388144400003</v>
       </c>
       <c r="W349" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+      <c r="X349" t="inlineStr">
         <is>
           <t>o__Lactobacillales</t>
         </is>
